--- a/techniqo/data_new_ticker/HDFCAMC.xlsx
+++ b/techniqo/data_new_ticker/HDFCAMC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G519"/>
+  <dimension ref="A1:G521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18551,6 +18551,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>2350</v>
+      </c>
+      <c r="C520" t="n">
+        <v>2364</v>
+      </c>
+      <c r="D520" t="n">
+        <v>2303.05</v>
+      </c>
+      <c r="E520" t="n">
+        <v>2307.3</v>
+      </c>
+      <c r="F520" t="n">
+        <v>431042</v>
+      </c>
+      <c r="G520" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>2324</v>
+      </c>
+      <c r="C521" t="n">
+        <v>2324</v>
+      </c>
+      <c r="D521" t="n">
+        <v>2288</v>
+      </c>
+      <c r="E521" t="n">
+        <v>2291.2</v>
+      </c>
+      <c r="F521" t="n">
+        <v>554647</v>
+      </c>
+      <c r="G521" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/HDFCAMC.xlsx
+++ b/techniqo/data_new_ticker/HDFCAMC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G521"/>
+  <dimension ref="A1:G523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18601,6 +18601,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>2285.15</v>
+      </c>
+      <c r="C522" t="n">
+        <v>2333</v>
+      </c>
+      <c r="D522" t="n">
+        <v>2251</v>
+      </c>
+      <c r="E522" t="n">
+        <v>2259.65</v>
+      </c>
+      <c r="F522" t="n">
+        <v>489175</v>
+      </c>
+      <c r="G522" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>2274</v>
+      </c>
+      <c r="C523" t="n">
+        <v>2274.95</v>
+      </c>
+      <c r="D523" t="n">
+        <v>2181</v>
+      </c>
+      <c r="E523" t="n">
+        <v>2215.45</v>
+      </c>
+      <c r="F523" t="n">
+        <v>891189</v>
+      </c>
+      <c r="G523" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
